--- a/va_facility_data_2025-02-20/Hayward VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hayward%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hayward VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hayward%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ree380b98b4364d92bf4877785c995aa4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf5739993306b4f3d9ff1368d8997f8e9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra7f4eec003d444fdaabbca70350d9d68"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R16979b7c3ab24b25b86ff635b42a7f3d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfa48a9c669374caa899ae5e014c29df7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R77cb012d1e2c47cd9c62513553e0cf4f"/>
   </x:sheets>
 </x:workbook>
 </file>
